--- a/doc/example/Templat_เพิ่มข้อมูลบุคลากร.xlsx
+++ b/doc/example/Templat_เพิ่มข้อมูลบุคลากร.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_project\doc\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="130">
   <si>
     <t>เลขบัตรประชาชน</t>
   </si>
@@ -86,9 +86,6 @@
     <t>รักษาคม</t>
   </si>
   <si>
-    <t>แพทย์หญิง</t>
-  </si>
-  <si>
     <t>ผู้อำนวยการ</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
     <t>พุทธรัตน์</t>
   </si>
   <si>
-    <t>นักวิชาการสาธารณสุข</t>
-  </si>
-  <si>
-    <t>รองผู้อำนวยการ</t>
-  </si>
-  <si>
     <t>รวิสรา</t>
   </si>
   <si>
@@ -143,33 +134,21 @@
     <t>ศรีประพัฒน์</t>
   </si>
   <si>
-    <t>ผู้ช่วยผู้อำนวยการ</t>
-  </si>
-  <si>
     <t>จงจิตต์</t>
   </si>
   <si>
     <t>สุขปราโมทย์</t>
   </si>
   <si>
-    <t>นักจัดการงานทั่วไป</t>
-  </si>
-  <si>
     <t>ณรงค์ศักดิ์</t>
   </si>
   <si>
     <t>ทองธรรมชาติ</t>
   </si>
   <si>
-    <t>รักษาการหัวหน้ากลุ่ม</t>
-  </si>
-  <si>
     <t>ชำนาญการ</t>
   </si>
   <si>
-    <t>กลุ่มพัฒนาภาคีเครือข่าย</t>
-  </si>
-  <si>
     <t>สิริลักษณ์</t>
   </si>
   <si>
@@ -185,43 +164,262 @@
     <t>ศุขเขษม</t>
   </si>
   <si>
-    <t>นิรุจน์</t>
-  </si>
-  <si>
-    <t>พลเยี่ยม</t>
-  </si>
-  <si>
-    <t>สุพล</t>
-  </si>
-  <si>
-    <t>วังขุย</t>
-  </si>
-  <si>
-    <t>พยาบาลวิชาชีพ</t>
-  </si>
-  <si>
-    <t>กรกมล</t>
-  </si>
-  <si>
-    <t>ดวงใส</t>
-  </si>
-  <si>
     <t>พนักงานราชการ</t>
   </si>
   <si>
-    <t>เพ็ญศิริ</t>
-  </si>
-  <si>
-    <t>นาถวิล</t>
+    <t>3659900370111</t>
+  </si>
+  <si>
+    <t>ผู้อำนวยการสำนักงาน (ผู้อำนวยการเฉพาะด้าน (แพทย์)สูง)</t>
+  </si>
+  <si>
+    <t>สูง</t>
+  </si>
+  <si>
+    <t>วันเกษียณอายุ</t>
+  </si>
+  <si>
+    <t>3809800164640</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขเชี่ยวชาญ</t>
+  </si>
+  <si>
+    <t>วิชาการ</t>
+  </si>
+  <si>
+    <t>3240400341622</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขชำนาญการพิเศษ</t>
+  </si>
+  <si>
+    <t>3100503700341</t>
+  </si>
+  <si>
+    <t>แพทย์หญิงชำนาญการพิเศษ</t>
+  </si>
+  <si>
+    <t>กลุ่มระบาดวิทยาและข่าวกรอง</t>
+  </si>
+  <si>
+    <t>3100902326167</t>
+  </si>
+  <si>
+    <t>กลุ่มปฏิบัติการควบคุมโรคและตอบโต้ภาวะฉุกเฉินทางด้านสาธารณสุข</t>
+  </si>
+  <si>
+    <t>3140900219177</t>
+  </si>
+  <si>
+    <t>นักวิชาการเงินและบัญชีชำนาญการ</t>
+  </si>
+  <si>
+    <t>กลุ่มบริหารทั่วไป</t>
+  </si>
+  <si>
+    <t>3200100374797</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขชำนาญการ</t>
+  </si>
+  <si>
+    <t>3779900050639</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขปฏิบัติการ</t>
+  </si>
+  <si>
+    <t>กลุ่มสื่อสารความเสี่ยงและพัฒนาพฤติกรรมสุขภาพ</t>
+  </si>
+  <si>
+    <t>3100203271185</t>
+  </si>
+  <si>
+    <t>กลุ่มแผนงานและประเมินผล</t>
+  </si>
+  <si>
+    <t>3101403047522</t>
+  </si>
+  <si>
+    <t>ลองเดช</t>
+  </si>
+  <si>
+    <t>รายณะสุข</t>
+  </si>
+  <si>
+    <t>3200600875248</t>
+  </si>
+  <si>
+    <t>สมปอง</t>
+  </si>
+  <si>
+    <t>โรจน์รุ่งศศิธร</t>
+  </si>
+  <si>
+    <t>ราชการ</t>
+  </si>
+  <si>
+    <t>3200900335451</t>
+  </si>
+  <si>
+    <t>วชิระ</t>
+  </si>
+  <si>
+    <t>มากเจริญ</t>
+  </si>
+  <si>
+    <t>กลุ่มงานบริการพื้นฐาน</t>
+  </si>
+  <si>
+    <t>พนักงานทั่วไประดับ บ2</t>
+  </si>
+  <si>
+    <t>ลูกจ้างประจำ</t>
+  </si>
+  <si>
+    <t>ระดับ บ2</t>
+  </si>
+  <si>
+    <t>3200101213355</t>
+  </si>
+  <si>
+    <t>สมชาย</t>
+  </si>
+  <si>
+    <t>เกิดปราง</t>
+  </si>
+  <si>
+    <t>3200101043077</t>
+  </si>
+  <si>
+    <t>วิชาญ</t>
+  </si>
+  <si>
+    <t>วงษ์สุนทร</t>
+  </si>
+  <si>
+    <t>กลุ่มงานสนับสนุน</t>
+  </si>
+  <si>
+    <t>ระดับ ส2</t>
+  </si>
+  <si>
+    <t>1420200008930</t>
+  </si>
+  <si>
+    <t>วมิลรัตน์</t>
+  </si>
+  <si>
+    <t>ปัสสาวัฒนะ</t>
+  </si>
+  <si>
+    <t>พนักงานขับรถยนต์ระดับ ส2</t>
+  </si>
+  <si>
+    <t>นักวิเคราะห์นโยบายและแผนกลุ่มงานบริหารทั่วไป</t>
+  </si>
+  <si>
+    <t>0166</t>
+  </si>
+  <si>
+    <t>0167</t>
+  </si>
+  <si>
+    <t>0566</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>1 เม.ย. 2542</t>
+  </si>
+  <si>
+    <t>1 เม.ย. 2529</t>
+  </si>
+  <si>
+    <t>1 เม.ย. 2525</t>
+  </si>
+  <si>
+    <t>6 ม.ค. 2541</t>
+  </si>
+  <si>
+    <t>13 เม.ย. 2520</t>
+  </si>
+  <si>
+    <t>21 พ.ย. 2520</t>
+  </si>
+  <si>
+    <t>3 มิ.ย. 2534</t>
+  </si>
+  <si>
+    <t>2 มิ.ย. 2540</t>
+  </si>
+  <si>
+    <t>2 เม.ย. 2544</t>
+  </si>
+  <si>
+    <t>1 พ.ค. 2529</t>
+  </si>
+  <si>
+    <t>3 เม.ย. 2532</t>
+  </si>
+  <si>
+    <t>5 พ.ย. 2527</t>
+  </si>
+  <si>
+    <t>1 มิ.ย. 2533</t>
+  </si>
+  <si>
+    <t>19 ก.ย. 2542</t>
+  </si>
+  <si>
+    <t>19 เม.ย. 2553</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2578</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2567</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2563</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2572</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2561</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2573</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2577</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2585</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2564</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2569</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2570</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2576</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2588</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="0_ ;\-0\ "/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,24 +436,24 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <sz val="18"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
@@ -281,22 +479,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -574,34 +781,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="21.625" customWidth="1"/>
-    <col min="13" max="13" width="33.875" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35" style="2" customWidth="1"/>
+    <col min="9" max="10" width="16.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="19.75" style="7" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -637,23 +848,30 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1097</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -662,446 +880,761 @@
       <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="8">
+        <v>40270</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1114</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="N3" s="8">
+        <v>57290</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1129</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
+      <c r="N4" s="8">
+        <v>56020</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1127</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="8">
+        <v>33830</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1175</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="8">
+        <v>50340</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="8">
+        <v>43300</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3607</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N8" s="8">
+        <v>35530</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1185</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="8">
+        <v>26340</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1187</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="8">
+        <v>22750</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1191</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N11" s="8">
+        <v>43120</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1197</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="8">
+        <v>44720</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="8">
+        <v>17270</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="8">
+        <v>17270</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="8">
+        <v>19100</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="N16" s="8">
+        <v>20650</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="C20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="F21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.65">
+      <c r="I26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/example/Templat_เพิ่มข้อมูลบุคลากร.xlsx
+++ b/doc/example/Templat_เพิ่มข้อมูลบุคลากร.xlsx
@@ -420,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,12 +433,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="222"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -454,6 +448,29 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
@@ -479,25 +496,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -783,858 +808,887 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35" style="2" customWidth="1"/>
-    <col min="9" max="10" width="16.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="19.75" style="7" customWidth="1"/>
-    <col min="16" max="16" width="15.25" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="24.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.75" style="5" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="5" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="12">
         <v>1097</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="17">
         <v>40270</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="7"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="12">
         <v>1114</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="17">
         <v>57290</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
+      <c r="Q3" s="18"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="12">
         <v>1129</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="17">
         <v>56020</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
+      <c r="Q4" s="18"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="12">
         <v>1127</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="17">
         <v>33830</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
+      <c r="Q5" s="18"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="12">
         <v>1175</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="17">
         <v>50340</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="Q6" s="13"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="12">
         <v>1105</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="17">
         <v>43300</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="Q7" s="13"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="12">
         <v>3607</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="17">
         <v>35530</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="Q8" s="13"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="12">
         <v>1185</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="17">
         <v>26340</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="Q9" s="13"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="12">
         <v>1187</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="17">
         <v>22750</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
+      <c r="Q10" s="13"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="12">
         <v>1191</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="17">
         <v>43120</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="Q11" s="13"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="12">
         <v>1197</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="17">
         <v>44720</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="Q12" s="13"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="17">
         <v>17270</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="Q13" s="13"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="17">
         <v>17270</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="Q14" s="13"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="17">
         <v>19100</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="Q15" s="13"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="3" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="17">
         <v>20650</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
+      <c r="Q16" s="13"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="I19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="C20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="F21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="I25" s="4"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="I26" s="4"/>
+      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/example/Templat_เพิ่มข้อมูลบุคลากร.xlsx
+++ b/doc/example/Templat_เพิ่มข้อมูลบุคลากร.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
   <si>
     <t>เลขบัตรประชาชน</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>3659900370111</t>
-  </si>
-  <si>
-    <t>ผู้อำนวยการสำนักงาน (ผู้อำนวยการเฉพาะด้าน (แพทย์)สูง)</t>
   </si>
   <si>
     <t>สูง</t>
@@ -808,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" x14ac:dyDescent="0.65"/>
@@ -880,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>15</v>
@@ -907,16 +904,16 @@
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="14" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>22</v>
@@ -928,10 +925,10 @@
         <v>40270</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="18"/>
       <c r="S2" s="7"/>
@@ -939,7 +936,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="12">
         <v>1114</v>
@@ -958,13 +955,13 @@
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>21</v>
@@ -979,10 +976,10 @@
         <v>57290</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="18"/>
       <c r="S3" s="7"/>
@@ -990,7 +987,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="12">
         <v>1129</v>
@@ -1009,13 +1006,13 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>29</v>
@@ -1030,10 +1027,10 @@
         <v>56020</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="18"/>
       <c r="S4" s="7"/>
@@ -1041,7 +1038,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="12">
         <v>1127</v>
@@ -1060,19 +1057,19 @@
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>23</v>
@@ -1081,10 +1078,10 @@
         <v>33830</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="18"/>
       <c r="S5" s="7"/>
@@ -1092,7 +1089,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="12">
         <v>1175</v>
@@ -1111,19 +1108,19 @@
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>23</v>
@@ -1132,10 +1129,10 @@
         <v>50340</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="S6" s="7"/>
@@ -1143,7 +1140,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="12">
         <v>1105</v>
@@ -1162,19 +1159,19 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>23</v>
@@ -1183,10 +1180,10 @@
         <v>43300</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="S7" s="7"/>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="12">
         <v>3607</v>
@@ -1213,19 +1210,19 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>23</v>
@@ -1234,10 +1231,10 @@
         <v>35530</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="S8" s="7"/>
@@ -1245,7 +1242,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A9" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="12">
         <v>1185</v>
@@ -1264,19 +1261,19 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>23</v>
@@ -1285,10 +1282,10 @@
         <v>26340</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="13"/>
       <c r="S9" s="7"/>
@@ -1296,7 +1293,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A10" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="12">
         <v>1187</v>
@@ -1315,19 +1312,19 @@
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>23</v>
@@ -1336,10 +1333,10 @@
         <v>22750</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="S10" s="7"/>
@@ -1347,7 +1344,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A11" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="12">
         <v>1191</v>
@@ -1359,26 +1356,26 @@
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>23</v>
@@ -1387,10 +1384,10 @@
         <v>43120</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="13"/>
       <c r="S11" s="7"/>
@@ -1398,7 +1395,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A12" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="12">
         <v>1197</v>
@@ -1410,26 +1407,26 @@
         <v>24</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>23</v>
@@ -1438,10 +1435,10 @@
         <v>44720</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="S12" s="7"/>
@@ -1449,10 +1446,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A13" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>32</v>
@@ -1461,24 +1458,24 @@
         <v>33</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>23</v>
@@ -1487,10 +1484,10 @@
         <v>17270</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="S13" s="7"/>
@@ -1498,10 +1495,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A14" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>32</v>
@@ -1510,24 +1507,24 @@
         <v>33</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>23</v>
@@ -1536,10 +1533,10 @@
         <v>17270</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="13"/>
       <c r="S14" s="7"/>
@@ -1547,10 +1544,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A15" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>32</v>
@@ -1559,24 +1556,24 @@
         <v>33</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>23</v>
@@ -1585,10 +1582,10 @@
         <v>19100</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="S15" s="7"/>
@@ -1596,10 +1593,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>16</v>
@@ -1608,14 +1605,14 @@
         <v>17</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>46</v>
@@ -1630,10 +1627,10 @@
         <v>20650</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="13"/>
       <c r="S16" s="7"/>

--- a/doc/example/Templat_เพิ่มข้อมูลบุคลากร.xlsx
+++ b/doc/example/Templat_เพิ่มข้อมูลบุคลากร.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="131">
   <si>
     <t>เลขบัตรประชาชน</t>
   </si>
@@ -95,9 +95,6 @@
     <t>กลุ่มอำนวยการ</t>
   </si>
   <si>
-    <t>สำนักงานป้องกันควบคุมโรคที่ 6 ชลบุรี</t>
-  </si>
-  <si>
     <t>นาง</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>สูง</t>
   </si>
   <si>
-    <t>วันเกษียณอายุ</t>
-  </si>
-  <si>
     <t>3809800164640</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>โรจน์รุ่งศศิธร</t>
   </si>
   <si>
-    <t>ราชการ</t>
-  </si>
-  <si>
     <t>3200900335451</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
     <t>ลูกจ้างประจำ</t>
   </si>
   <si>
-    <t>ระดับ บ2</t>
-  </si>
-  <si>
     <t>3200101213355</t>
   </si>
   <si>
@@ -299,9 +287,6 @@
     <t>กลุ่มงานสนับสนุน</t>
   </si>
   <si>
-    <t>ระดับ ส2</t>
-  </si>
-  <si>
     <t>1420200008930</t>
   </si>
   <si>
@@ -374,43 +359,64 @@
     <t>19 เม.ย. 2553</t>
   </si>
   <si>
-    <t>1 ต.ค. 2578</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2567</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2563</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2572</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2561</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2573</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2577</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2585</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2564</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2569</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2570</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2576</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2588</t>
+    <t>บ2</t>
+  </si>
+  <si>
+    <t>ส2</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 6 จังหวัดชลบุรี</t>
+  </si>
+  <si>
+    <t>ข้าราชการ</t>
+  </si>
+  <si>
+    <t>วันเดือนปีเกิด</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2514</t>
+  </si>
+  <si>
+    <t>18 พ.ค. 2492</t>
+  </si>
+  <si>
+    <t>4 เม.ย. 2499</t>
+  </si>
+  <si>
+    <t>13 ต.ค. 2526</t>
+  </si>
+  <si>
+    <t>11 ก.ย. 2500</t>
+  </si>
+  <si>
+    <t>25 ม.ค. 2514</t>
+  </si>
+  <si>
+    <t>15 ส.ค. 2513</t>
+  </si>
+  <si>
+    <t>1 ธ.ค. 2520</t>
+  </si>
+  <si>
+    <t>11 ต.ค. 2516</t>
+  </si>
+  <si>
+    <t>29 ต.ค. 2524</t>
+  </si>
+  <si>
+    <t>16 ก.ค. 2501</t>
+  </si>
+  <si>
+    <t>21 ต.ค. 2514</t>
+  </si>
+  <si>
+    <t>22 มี.ค. 2514</t>
+  </si>
+  <si>
+    <t>18 ต.ค. 2516</t>
+  </si>
+  <si>
+    <t>30 ต.ค. 2520</t>
   </si>
 </sst>
 </file>
@@ -805,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" x14ac:dyDescent="0.65"/>
@@ -877,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>15</v>
@@ -885,7 +891,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="12">
         <v>1097</v>
@@ -907,25 +913,25 @@
         <v>20</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N2" s="17">
         <v>40270</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>116</v>
@@ -936,7 +942,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="12">
         <v>1114</v>
@@ -945,23 +951,23 @@
         <v>16</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>21</v>
@@ -970,13 +976,13 @@
         <v>22</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N3" s="17">
         <v>57290</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>117</v>
@@ -987,7 +993,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A4" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="12">
         <v>1129</v>
@@ -996,38 +1002,38 @@
         <v>16</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N4" s="17">
         <v>56020</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>118</v>
@@ -1038,7 +1044,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A5" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="12">
         <v>1127</v>
@@ -1047,38 +1053,38 @@
         <v>16</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N5" s="17">
         <v>33830</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>119</v>
@@ -1089,50 +1095,50 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A6" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="12">
         <v>1175</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N6" s="17">
         <v>50340</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="S6" s="7"/>
@@ -1140,7 +1146,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A7" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="12">
         <v>1105</v>
@@ -1149,41 +1155,41 @@
         <v>16</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N7" s="17">
         <v>43300</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="S7" s="7"/>
@@ -1191,50 +1197,50 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A8" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="12">
         <v>3607</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N8" s="17">
         <v>35530</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="S8" s="7"/>
@@ -1242,7 +1248,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12">
         <v>1185</v>
@@ -1251,41 +1257,41 @@
         <v>16</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N9" s="17">
         <v>26340</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="13"/>
       <c r="S9" s="7"/>
@@ -1293,7 +1299,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="12">
         <v>1187</v>
@@ -1305,38 +1311,38 @@
         <v>17</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N10" s="17">
         <v>22750</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="S10" s="7"/>
@@ -1344,50 +1350,50 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A11" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="12">
         <v>1191</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N11" s="17">
         <v>43120</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="13"/>
       <c r="S11" s="7"/>
@@ -1395,7 +1401,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A12" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="12">
         <v>1197</v>
@@ -1404,41 +1410,41 @@
         <v>16</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N12" s="17">
         <v>44720</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="S12" s="7"/>
@@ -1446,48 +1452,48 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A13" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="N13" s="17">
         <v>17270</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="S13" s="7"/>
@@ -1495,48 +1501,48 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A14" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="N14" s="17">
         <v>17270</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="13"/>
       <c r="S14" s="7"/>
@@ -1544,48 +1550,48 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A15" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>23</v>
+        <v>86</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="N15" s="17">
         <v>19100</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="S15" s="7"/>
@@ -1593,10 +1599,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A16" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>16</v>
@@ -1605,32 +1611,32 @@
         <v>17</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16" t="s">
-        <v>23</v>
+      <c r="M16" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="N16" s="17">
         <v>20650</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="13"/>
       <c r="S16" s="7"/>

--- a/doc/example/Templat_เพิ่มข้อมูลบุคลากร.xlsx
+++ b/doc/example/Templat_เพิ่มข้อมูลบุคลากร.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="232">
   <si>
     <t>เลขบัตรประชาชน</t>
   </si>
@@ -417,6 +418,309 @@
   </si>
   <si>
     <t>30 ต.ค. 2520</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 1 จังหวัดเชียงใหม่</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 2 จังหวัดพิษณุโลก</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 3 จังหวัดนครสวรรค์</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 4 จังหวัดสระบุรี</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 5 จังหวัดราชบุรี</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 7 จังหวัดขอนแก่น</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 8 จังหวัดอุดรธานี</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 9 จังหวัดนครราชสีมา</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 10 จังหวัดนครศรีธรรมราช</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 11 จังหวัดนครศรีธรรมราช</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 12 จังหวัดสงขลา</t>
+  </si>
+  <si>
+    <t>กลุ่มพัฒนาวิชาการ</t>
+  </si>
+  <si>
+    <t>กลุ่มพัฒนาภาคีเครือข่าย</t>
+  </si>
+  <si>
+    <t>กลุ่มสื่อสาร</t>
+  </si>
+  <si>
+    <t>กลุ่มระบาดวิทยา</t>
+  </si>
+  <si>
+    <t>กลุ่มพัฒนาองค์กร</t>
+  </si>
+  <si>
+    <t>ศตม 6.5 จันทบุรี</t>
+  </si>
+  <si>
+    <t>ศตม.6.4 ตราด</t>
+  </si>
+  <si>
+    <t>ศตม.6.1 ศรีราชา</t>
+  </si>
+  <si>
+    <t>ศตม.6.3 ระยอง</t>
+  </si>
+  <si>
+    <t>ศตม.6.2 สระแก้ว</t>
+  </si>
+  <si>
+    <t>ด่านท่าเรือศรีราชา</t>
+  </si>
+  <si>
+    <t>ด่านท่าเรือแหลมฉบัง</t>
+  </si>
+  <si>
+    <t>ด่านท่าเรือเกาะสีชัง</t>
+  </si>
+  <si>
+    <t>ด่านท่าเรือมาบตาพุด</t>
+  </si>
+  <si>
+    <t>ด่านท่าอากาศยานอู่ตะเภา</t>
+  </si>
+  <si>
+    <t>ด่านอรัญประเทศ</t>
+  </si>
+  <si>
+    <t>ด่านคลองใหญ่</t>
+  </si>
+  <si>
+    <t>ด่านบ้านแหลม</t>
+  </si>
+  <si>
+    <t>ด่านบ้านผักกาด</t>
+  </si>
+  <si>
+    <t>หน่วยกามโรคที่ 3.1 อ.บางละมุง</t>
+  </si>
+  <si>
+    <t>วัณโรค</t>
+  </si>
+  <si>
+    <t>กลุ่มห้องปฏิบัติการ</t>
+  </si>
+  <si>
+    <t>กลุ่มงานสถาปัตยกรรมข้อมูล</t>
+  </si>
+  <si>
+    <t>กลุ่มปฏิบัติการ</t>
+  </si>
+  <si>
+    <t>พัฒนาภาคีเครือข่าย</t>
+  </si>
+  <si>
+    <t>แพทย์หญิง</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุข</t>
+  </si>
+  <si>
+    <t>พยาบาลวิชาชิพ</t>
+  </si>
+  <si>
+    <t>เภสัชกร</t>
+  </si>
+  <si>
+    <t>นักสังคมสงเคราะห์</t>
+  </si>
+  <si>
+    <t>นักวิเคราะห์นโยบายและแผน</t>
+  </si>
+  <si>
+    <t>นักเทคนิคการแพทย์</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานวิทย์ฯการแพทย์</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานเภสัชกรรม</t>
+  </si>
+  <si>
+    <t>นักวิชาการการเงินและบัญชี</t>
+  </si>
+  <si>
+    <t>นักจัดการงานทั่วไป</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานการเงินและบัญชี</t>
+  </si>
+  <si>
+    <t>นักวิชาการพัสดุ</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานพัสดุ</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานธุรการ</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานสาธารณสุข</t>
+  </si>
+  <si>
+    <t>นักรังสีการแพทย์</t>
+  </si>
+  <si>
+    <t>นักทรัพยากรบุคคล</t>
+  </si>
+  <si>
+    <t>นักวิชาการเผยแพร่</t>
+  </si>
+  <si>
+    <t>นักประชาสัมพันธ์</t>
+  </si>
+  <si>
+    <t>นิติกร</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>นักวิชาการคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>พนักงานปฏิบัติการพาหะส2</t>
+  </si>
+  <si>
+    <t>พนักงานปฏิบัติการชันสูตรส2</t>
+  </si>
+  <si>
+    <t>พนักงานพิมพ์ระดับส3</t>
+  </si>
+  <si>
+    <t>พนักงานขับรถยนต์ส2</t>
+  </si>
+  <si>
+    <t>พนักงานทั่วไประดับส2</t>
+  </si>
+  <si>
+    <t>พนักงานทั่วไป1</t>
+  </si>
+  <si>
+    <t>ผู้ข่วยเหลือคนไข้</t>
+  </si>
+  <si>
+    <t>แม่บ้านระดับ บ2</t>
+  </si>
+  <si>
+    <t>พนักงานธุรการระดับ ส2</t>
+  </si>
+  <si>
+    <t>พนักงานธุรการระดับ ส3</t>
+  </si>
+  <si>
+    <t>พนักงานสถานที่ระดับ บ2</t>
+  </si>
+  <si>
+    <t>พนักงานเยี่ยมบ้านระดับ ส2</t>
+  </si>
+  <si>
+    <t>ช่างเครื่องยนต์ระดับ ช2</t>
+  </si>
+  <si>
+    <t>นักกีฏวิทยา</t>
+  </si>
+  <si>
+    <t>นักวิทยาศาสตร์การแพทย์</t>
+  </si>
+  <si>
+    <t>นายแพทย์</t>
+  </si>
+  <si>
+    <t>ชำนาญงาน</t>
+  </si>
+  <si>
+    <t>อาวุโส</t>
+  </si>
+  <si>
+    <t>ส 2 หัวหน้า</t>
+  </si>
+  <si>
+    <t>ส 2</t>
+  </si>
+  <si>
+    <t>ส 3</t>
+  </si>
+  <si>
+    <t>บ 2</t>
+  </si>
+  <si>
+    <t>ปฏิบัติงาน</t>
+  </si>
+  <si>
+    <t>พนักงานหน่วยงาน</t>
+  </si>
+  <si>
+    <t>พนักงานกระทรวงสาธารณสุข</t>
+  </si>
+  <si>
+    <t>กลุ่มควบคุมโรคเขตเมือง</t>
+  </si>
+  <si>
+    <t>พนักงานกระทรวง</t>
+  </si>
+  <si>
+    <t>ลูกจ้างชั่วคราว</t>
+  </si>
+  <si>
+    <t>ลูกจ้างเหมา</t>
+  </si>
+  <si>
+    <t>ลูกจ้างเหมาบริการ</t>
+  </si>
+  <si>
+    <t>ลูกจ้างเงิน ปตท.</t>
+  </si>
+  <si>
+    <t>พนักงานกระทรวง สธ</t>
+  </si>
+  <si>
+    <t>รองผู้อำนวยการ</t>
+  </si>
+  <si>
+    <t>ผู้ช่วยผู้อำนวยการ</t>
+  </si>
+  <si>
+    <t>หัวหน้ากลุ่ม</t>
+  </si>
+  <si>
+    <t>รักษาการหัวหน้ากลุ่ม</t>
+  </si>
+  <si>
+    <t>หัวหน้าหน่วย</t>
+  </si>
+  <si>
+    <t>หัวหน้างาน</t>
+  </si>
+  <si>
+    <t>หัวหน้า</t>
+  </si>
+  <si>
+    <t>รก.หน.ศตม.6.2</t>
+  </si>
+  <si>
+    <t>หัวหน้านิคมฯ</t>
+  </si>
+  <si>
+    <t>ทั่วไป</t>
   </si>
 </sst>
 </file>
@@ -499,7 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -528,6 +832,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -811,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" x14ac:dyDescent="0.65"/>
@@ -888,6 +1193,7 @@
       <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A2" s="12" t="s">
@@ -937,6 +1243,7 @@
         <v>116</v>
       </c>
       <c r="Q2" s="18"/>
+      <c r="R2" s="20"/>
       <c r="S2" s="7"/>
       <c r="T2" s="5"/>
     </row>
@@ -988,6 +1295,7 @@
         <v>117</v>
       </c>
       <c r="Q3" s="18"/>
+      <c r="R3" s="20"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
@@ -1039,6 +1347,7 @@
         <v>118</v>
       </c>
       <c r="Q4" s="18"/>
+      <c r="R4" s="20"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
     </row>
@@ -1090,6 +1399,7 @@
         <v>119</v>
       </c>
       <c r="Q5" s="18"/>
+      <c r="R5" s="20"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
@@ -1141,6 +1451,7 @@
         <v>120</v>
       </c>
       <c r="Q6" s="13"/>
+      <c r="R6" s="20"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
     </row>
@@ -1192,6 +1503,7 @@
         <v>121</v>
       </c>
       <c r="Q7" s="13"/>
+      <c r="R7" s="20"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
     </row>
@@ -1243,6 +1555,7 @@
         <v>122</v>
       </c>
       <c r="Q8" s="13"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
@@ -1294,6 +1607,7 @@
         <v>123</v>
       </c>
       <c r="Q9" s="13"/>
+      <c r="R9" s="20"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
     </row>
@@ -1345,6 +1659,7 @@
         <v>124</v>
       </c>
       <c r="Q10" s="13"/>
+      <c r="R10" s="20"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
     </row>
@@ -1396,6 +1711,7 @@
         <v>125</v>
       </c>
       <c r="Q11" s="13"/>
+      <c r="R11" s="20"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
     </row>
@@ -1447,6 +1763,7 @@
         <v>126</v>
       </c>
       <c r="Q12" s="13"/>
+      <c r="R12" s="20"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
     </row>
@@ -1696,5 +2013,553 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$1:$B$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$1:$C$48</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$1:$D$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$E$1:$E$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$F$1:$F$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F1:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.125" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>